--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니엔 국경 내, 이동도시 월루몽드 밖, 보잘것없는 오래된 참나무 아래
+    <t xml:space="preserve">라이타니아 국경 내, 이동도시 월루몽드 밖, 보잘것없는 오래된 참나무 아래
 </t>
   </si>
   <si>
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  라이타니엔에서 감염자에 대한 대우는 이미 많이 개선됐잖아. 아츠 보급률도 이렇게나 높아졌고 말이야. 근데 여기 감염자들은 대체 왜 박해받는 거지?
+    <t xml:space="preserve">[name="무장 감염자"]  라이타니아에서 감염자에 대한 대우는 이미 많이 개선됐잖아. 아츠 보급률도 이렇게나 높아졌고 말이야. 근데 여기 감염자들은 대체 왜 박해받는 거지?
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  우리가 라이타니엔에 들어온 뒤로 밥 녀석들이랑은 소식이 끊겼어…… 그나저나 계속 궁금했던 건데 말이야.
+    <t xml:space="preserve">[name="무장 감염자"]  우리가 라이타니아에 들어온 뒤로 밥 녀석들이랑은 소식이 끊겼어…… 그나저나 계속 궁금했던 건데 말이야.
 </t>
   </si>
   <si>
@@ -2040,11 +2040,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  응…… 그래서 라이타니엔으로 전출 신청을 넣어뒀어. 아미야 쪽 승인 떨어지면 바로 출발하려고.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]  라이타니엔이요? 폴리닉 언니는 다른 임무가 있지 않나요?
+    <t xml:space="preserve">[name="폴리닉"]  응…… 그래서 라이타니아로 전출 신청을 넣어뒀어. 아미야 쪽 승인 떨어지면 바로 출발하려고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]  라이타니아요? 폴리닉 언니는 다른 임무가 있지 않나요?
 </t>
   </si>
   <si>
@@ -2052,7 +2052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아트로 언니가 마지막으로 정기교신을 보내온 건 라이타니엔의 한 사무실에서였어. 특수한 상황이 생긴 게 아니라면, 거기서 멀리 떨어지진 않았을 거야.
+    <t xml:space="preserve">[name="폴리닉"]  아트로 언니가 마지막으로 정기교신을 보내온 건 라이타니아의 한 사무실에서였어. 특수한 상황이 생긴 게 아니라면, 거기서 멀리 떨어지진 않았을 거야.
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아니. 라이타니엔의 오퍼레이터가 보내온 간이 보고야.
+    <t xml:space="preserve">[name="폴리닉"]  아니. 라이타니아의 오퍼레이터가 보내온 간이 보고야.
 </t>
   </si>
   <si>
@@ -2112,7 +2112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아트로 언니의 소재가 마지막으로 확인된 라이타니엔의 그 마을에서…… 한 달 전에……
+    <t xml:space="preserve">[name="폴리닉"]  아트로 언니의 소재가 마지막으로 확인된 라이타니아의 그 마을에서…… 한 달 전에……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
@@ -1448,7 +1448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Like, was his code name “Bob” and they started calling him “Big Bob” because he’s a big guy, or was he “Big Bob” from the start?
+    <t xml:space="preserve">[name="Armed Infected"]  Like, was his code name 'Bob' and they started calling him 'Big Bob' because he’s a big guy, or was he 'Big Bob' from the start?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I need my tobacco. You’re right, of course. Alcohol and tobacco are bad habits. Don’t be like me.
+    <t xml:space="preserve">[name="Severin"]  I need my tobacco. You're right, of course. Alcohol and tobacco are bad habits. Don't be like me.
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  We’re off the clock. No need to be so formal. How many times have I told you? Never mind.
+    <t xml:space="preserve">[name="Severin"]  We're off the clock. No need to be so formal. How many times have I told you? Never mind.
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  The bunch of old schemers. They won’t even come to me themselves. They send out a little girl to get hurt——*Cough* *cough*, *cough* *cough*!
+    <t xml:space="preserve">[name="Severin"]  The bunch of old schemers. They won't even come to me themselves. They send out a little girl to get hurt——*Cough* *cough*, *cough* *cough*!
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  You really have to quit smoking and drinking. Look how bad you’ve gotten...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I’ve more or less figured it out. Damn it.
+    <t xml:space="preserve">[name="Tatjana"]  You really have to quit smoking and drinking. Look how bad you've gotten...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I've more or less figured it out. Damn it.
 </t>
   </si>
   <si>
@@ -1148,11 +1148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  No, no one helped me. I couldn’t convince anyone on my own. I’m sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  The situation has been tense since the town went off course. We don’t need to be standing on ceremony anymore. Not that anyone would listen to students and kids, even if they did speak up.
+    <t xml:space="preserve">[name="Tatjana"]  No, no one helped me. I couldn't convince anyone on my own. I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  The situation has been tense since the town went off course. We don't need to be standing on ceremony anymore. Not that anyone would listen to students and kids, even if they did speak up.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  The councilors agreed that because it was impossible to distinguish between Infected and the state of their infection, it’s better safe than sorry...
+    <t xml:space="preserve">[name="Tatjana"]  The councilors agreed that because it was impossible to distinguish between Infected and the state of their infection, it's better safe than sorry...
 </t>
   </si>
   <si>
@@ -1176,23 +1176,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I... I’m sorry...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  But some of them are people of Wolumonde. Our own. We can’t just abandon them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Eckehard was the best tailor in town. He took over the shop from his father. We wouldn’t have weddings without him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  And poor Biederman. He lost his job as a Catastrophe Messenger because of the Great Rift. But he’s trying to atone. He is strong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Kevin wasn’t Infected. He worked hard for his wife. He was a good husband.
+    <t xml:space="preserve">[name="Tatjana"]  I... I'm sorry...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  But some of them are people of Wolumonde. Our own. We can't just abandon them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Eckehard was the best tailor in town. He took over the shop from his father. We wouldn't have weddings without him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  And poor Biederman. He lost his job as a Catastrophe Messenger because of the Great Rift. But he's trying to atone. He is strong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Kevin wasn't Infected. He worked hard for his wife. He was a good husband.
 </t>
   </si>
   <si>
@@ -1208,11 +1208,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I... I don’t know...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I just want Thor to be buried so he can rest in peace. I don’t want people treating him like he’s a threat when he’s already dead... to be tossed out there... to the elements.
+    <t xml:space="preserve">[name="Tatjana"]  I... I don't know...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I just want Thor to be buried so he can rest in peace. I don't want people treating him like he's a threat when he's already dead... to be tossed out there... to the elements.
 </t>
   </si>
   <si>
@@ -1240,11 +1240,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But... But let’s save that for later. For now, we can’t just dump their remains.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I contacted the nearest Gendarmerie, and they will have experts on the rescue team to assist with the investigation. Until then, we’ll keep the bodies where I can care for them.
+    <t xml:space="preserve">[name="Severin"]  But... But let's save that for later. For now, we can't just dump their remains.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I contacted the nearest Gendarmerie, and they will have experts on the rescue team to assist with the investigation. Until then, we'll keep the bodies where I can care for them.
 </t>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Wolumonde is getting worse and worse every day now that we’re off course. Everyone is saying we’ll have to head around the whole Great Rift to get back on track.
+    <t xml:space="preserve">[name="Tatjana"]  Wolumonde is getting worse and worse every day now that we're off course. Everyone is saying we'll have to head around the whole Great Rift to get back on track.
 </t>
   </si>
   <si>
@@ -1272,27 +1272,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Give me a minute with Thor. I think... I think I’m entitled to that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  If the old schemers want to leave my boy in the middle of nowhere, they’ll have to shoot their own Schultz.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They’ll have to shoot me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  They won’t! We all know how much you’ve done for the town!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  …No, forget I said that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I can’t say that at a time like this. The Schultz can’t talk like that. We have work to do.
+    <t xml:space="preserve">[name="Severin"]  Give me a minute with Thor. I think... I think I'm entitled to that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  If the old schemers want to leave my boy in the middle of nowhere, they'll have to shoot their own Schultz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They'll have to shoot me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  They won't! We all know how much you've done for the town!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  ...No, forget I said that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I can't say that at a time like this. The Schultz can't talk like that. We have work to do.
 </t>
   </si>
   <si>
@@ -1328,7 +1328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  The hunters will be back soon. Hope we get something today. I’m sick of sandworms. Two days is enough.
+    <t xml:space="preserve">[name="Armed Infected"]  The hunters will be back soon. Hope we get something today. I'm sick of sandworms. Two days is enough.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  But seriously, I don’t like talking to them. I always feel like they’re looking down on me.
+    <t xml:space="preserve">[name="Armed Infected"]  But seriously, I don't like talking to them. I always feel like they're looking down on me.
 </t>
   </si>
   <si>
@@ -1356,19 +1356,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  But I don’t trust the local Infected. They’re just out for revenge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Leithania is better to the Infected than most places are. And since everyone here uses Arts, they don’t have much reason to fear or persecute them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  And isn’t it enough that the Infected can have a decent life here without being sent straight to the gallows?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  I think they’re just a bunch of thugs, stealing our name for their own purposes—
+    <t xml:space="preserve">[name="Armed Infected"]  But I don't trust the local Infected. They're just out for revenge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Leithania is better to the Infected than most places are. And since everyone here uses Arts, they don't have much reason to fear or persecute them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  And isn't it enough that the Infected can have a decent life here without being sent straight to the gallows?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  I think they're just a bunch of thugs, stealing our name for their own purposes—
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  What’s in... a name?
+    <t xml:space="preserve">[name="???"]  What's in... a name?
 </t>
   </si>
   <si>
@@ -1384,7 +1384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  We don’t trust them... fine. But... who do we trust? Who should we trust?
+    <t xml:space="preserve">[name="???"]  We don't trust them... fine. But... who do we trust? Who should we trust?
 </t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  A few boxes of dried meat. Fresh-picked fruit. Water. It’s early autumn. Still a long way to winter...
+    <t xml:space="preserve">[name="???"]  A few boxes of dried meat. Fresh-picked fruit. Water. It's early autumn. Still a long way to winter...
 </t>
   </si>
   <si>
@@ -1412,11 +1412,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Okay. You’re still kind of confusing me with that talk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Anyway, it’s your call when to start the war.
+    <t xml:space="preserve">[name="Armed Infected"]  Okay. You're still kind of confusing me with that talk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Anyway, it's your call when to start the war.
 </t>
   </si>
   <si>
@@ -1444,19 +1444,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Haven’t heard from him since we got to Leithania... Erm, by the way, I’ve been meaning to ask…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Like, was his code name 'Bob' and they started calling him 'Big Bob' because he’s a big guy, or was he 'Big Bob' from the start?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  ...I don’t remember.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Whatever. They’re bounty hunters. Maybe they found the treasure.
+    <t xml:space="preserve">[name="Armed Infected"]  Haven't heard from him since we got to Leithania... Erm, by the way, I've been meaning to ask...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Like, was his code name 'Bob' and they started calling him 'Big Bob' because he's a big guy, or was he 'Big Bob' from the start?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  ...I don't remember.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Whatever. They're bounty hunters. Maybe they found the treasure.
 </t>
   </si>
   <si>
@@ -1468,11 +1468,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s been 27 days!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  How could she take so long to make contact? She’s obsessed with punctuality!
+    <t xml:space="preserve">[name="Folinic"]  It's been 27 days!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  How could she take so long to make contact? She's obsessed with punctuality!
 </t>
   </si>
   <si>
@@ -1488,11 +1488,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Oh, Lisa... Err, I’m supposed to call you Operator Suzuran now, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s a good code name.
+    <t xml:space="preserve">[name="Folinic"]  Oh, Lisa... Err, I'm supposed to call you Operator Suzuran now, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  It's a good code name.
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  You’ve been watching the communication room for 20 hours now. Aren’t you going to take a break?
+    <t xml:space="preserve">[name="Suzuran"]  You've been watching the communication room for 20 hours now. Aren't you going to take a break?
 </t>
   </si>
   <si>
@@ -1508,11 +1508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Yes! So please go to the break room and get some rest. I’ll take over for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Okay... It’s really been that long...
+    <t xml:space="preserve">[name="Suzuran"]  Yes! So please go to the break room and get some rest. I'll take over for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Okay... It's really been that long...
 </t>
   </si>
   <si>
@@ -1520,23 +1520,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  None yet. I already put in an application to go to Leithania. If Amiya approves, I’ll leave right away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Leithania? Don’t you have work to do?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  She’s my classmate, and my best friend. I can’t... I won’t abandon her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Atro’s last contact was with the office in northern Leithania. Unless something big happened, she wouldn’t go far from there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Then I’ll go too!
+    <t xml:space="preserve">[name="Folinic"]  None yet. I already put in an application to go to Leithania. If Amiya approves, I'll leave right away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Leithania? Don't you have work to do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  She's my classmate, and my best friend. I can't... I won't abandon her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Atro's last contact was with the office in northern Leithania. Unless something big happened, she wouldn't go far from there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Then I'll go too!
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  You- you just want to find Atro, right? It won’t be dangerous?
+    <t xml:space="preserve">[name="Suzuran"]  You- you just want to find Atro, right? It won't be dangerous?
 </t>
   </si>
   <si>
@@ -1556,15 +1556,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  That’s okay! I’m a fully accredited operator now, and a student of Dr. Kal'tsit!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  And I can’t stand seeing my big sister Folinic’s worried face all the time! I have to do something!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  *Sigh*. I never imagined little Lisa would worry about me someday. Everything’s all out of order lately.
+    <t xml:space="preserve">[name="Suzuran"]  That's okay! I'm a fully accredited operator now, and a student of Dr. Kal'tsit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  And I can't stand seeing my big sister Folinic's worried face all the time! I have to do something!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  *Sigh*. I never imagined little Lisa would worry about me someday. Everything's all out of order lately.
 </t>
   </si>
   <si>
@@ -1572,11 +1572,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Well, okay! I reported in to the local branch office anyway. If anything goes wrong, they’ll send help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Let’s just wait for Amiya’s approval and then we’ll go together. But you’ll have to stay close by me.
+    <t xml:space="preserve">[name="Folinic"]  Well, okay! I reported in to the local branch office anyway. If anything goes wrong, they'll send help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Let's just wait for Amiya's approval and then we'll go together. But you'll have to stay close by me.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No. It’s a brief, sent by an operator in Leithania who received our message.
+    <t xml:space="preserve">[name="Folinic"]  No. It's a brief, sent by an operator in Leithania who received our message.
 </t>
   </si>
   <si>
@@ -2052,7 +2052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아트로 언니가 마지막으로 정기교신을 보내온 건 라이타니아의 한 사무실에서였어. 특수한 상황이 생긴 게 아니라면, 거기서 멀리 떨어지진 않았을 거야.
+    <t xml:space="preserve">[name="폴리닉"]  아트로 언니가 마지막으로 정기교신을 보내온 건 라이타니아 북부의 한 사무소에서였어. 특수한 상황이 생긴 게 아니라면, 거기서 멀리 떨어지진 않았을 거야.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아 국경 내, 이동도시 월루몽드 밖, 보잘것없는 오래된 참나무 아래
+    <t xml:space="preserve">라이타니엔 국경 내, 이동도시 월루몽드 밖, 보잘것없는 오래된 참나무 아래
 </t>
   </si>
   <si>
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  라이타니아에서 감염자에 대한 대우는 이미 많이 개선됐잖아. 아츠 보급률도 이렇게나 높아졌고 말이야. 근데 여기 감염자들은 대체 왜 박해받는 거지?
+    <t xml:space="preserve">[name="무장 감염자"]  라이타니엔에서 감염자에 대한 대우는 이미 많이 개선됐잖아. 아츠 보급률도 이렇게나 높아졌고 말이야. 근데 여기 감염자들은 대체 왜 박해받는 거지?
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="무장 감염자"]  우리가 라이타니아에 들어온 뒤로 밥 녀석들이랑은 소식이 끊겼어…… 그나저나 계속 궁금했던 건데 말이야.
+    <t xml:space="preserve">[name="무장 감염자"]  우리가 라이타니엔에 들어온 뒤로 밥 녀석들이랑은 소식이 끊겼어…… 그나저나 계속 궁금했던 건데 말이야.
 </t>
   </si>
   <si>
@@ -2040,11 +2040,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  응…… 그래서 라이타니아로 전출 신청을 넣어뒀어. 아미야 쪽 승인 떨어지면 바로 출발하려고.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="스즈란"]  라이타니아요? 폴리닉 언니는 다른 임무가 있지 않나요?
+    <t xml:space="preserve">[name="폴리닉"]  응…… 그래서 라이타니엔으로 전출 신청을 넣어뒀어. 아미야 쪽 승인 떨어지면 바로 출발하려고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스즈란"]  라이타니엔요? 폴리닉 언니는 다른 임무가 있지 않나요?
 </t>
   </si>
   <si>
@@ -2052,7 +2052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아트로 언니가 마지막으로 정기교신을 보내온 건 라이타니아 북부의 한 사무소에서였어. 특수한 상황이 생긴 게 아니라면, 거기서 멀리 떨어지진 않았을 거야.
+    <t xml:space="preserve">[name="폴리닉"]  아트로 언니가 마지막으로 정기교신을 보내온 건 라이타니엔 북부의 한 사무소에서였어. 특수한 상황이 생긴 게 아니라면, 거기서 멀리 떨어지진 않았을 거야.
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아니. 라이타니아의 오퍼레이터가 보내온 간이 보고야.
+    <t xml:space="preserve">[name="폴리닉"]  아니. 라이타니엔의 오퍼레이터가 보내온 간이 보고야.
 </t>
   </si>
   <si>
@@ -2112,7 +2112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아트로 언니의 소재가 마지막으로 확인된 라이타니아의 그 마을에서…… 한 달 전에……
+    <t xml:space="preserve">[name="폴리닉"]  아트로 언니의 소재가 마지막으로 확인된 라이타니엔의 그 마을에서…… 한 달 전에……
 </t>
   </si>
   <si>
